--- a/biology/Botanique/Coprinus_cinereus/Coprinus_cinereus.xlsx
+++ b/biology/Botanique/Coprinus_cinereus/Coprinus_cinereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprinus cinereus · Coprin cendré
 Coprinopsis cinerea, le Coprin cendré, est une espèce de champignons basidiomycètes de la famille des Psathyrellaceae.
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Connu précédemment sous le nom de Coprinus cinereus, l'espèce a été transférée vers le genre Coprinopsis en 2001, à la suite d'analyses phylogénétiques qui ont montré la nécessité de réorganiser de nombreuses espèces qui étaient regroupées auparavant dans le genre Coprinus.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des traces d'ADN trouvées dans des plaques dentaires d'hommes de Neandertal laissent penser que ceux-ci, en Belgique au moins, mangeaient ce champignon[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des traces d'ADN trouvées dans des plaques dentaires d'hommes de Neandertal laissent penser que ceux-ci, en Belgique au moins, mangeaient ce champignon.
 </t>
         </is>
       </c>
@@ -627,6 +647,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
